--- a/Issues&NewDevelopment_PO.xlsx
+++ b/Issues&NewDevelopment_PO.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Issues&amp;New Exceptions" sheetId="1" r:id="rId1"/>
+    <sheet name="NON-PO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Issues&amp;New Exceptions'!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Issues&amp;New Exceptions'!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>Sl No.</t>
   </si>
@@ -178,16 +179,100 @@
     <t>Yet to be developed after NON PO completion</t>
   </si>
   <si>
-    <t>Non-Po</t>
-  </si>
-  <si>
-    <t>Handling Both Screens for all scenarios</t>
-  </si>
-  <si>
     <t>CR/Additional Exception</t>
   </si>
   <si>
     <t>CR/Additional Exception ?</t>
+  </si>
+  <si>
+    <t>Posting Period 005 2020 is not open error</t>
+  </si>
+  <si>
+    <t>H5041607452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple 40 line items </t>
+  </si>
+  <si>
+    <t>For forex invoices POST is not activated</t>
+  </si>
+  <si>
+    <t>HSN /SAC is not defined for country IN</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>handled by bot</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>DataCap made mandatory and bot given email</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>to be discussed with Datacap</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>moving to manual queue</t>
+  </si>
+  <si>
+    <t>6th letter is P,H belong to nonCompany other than that belongs to Company</t>
+  </si>
+  <si>
+    <t>to be discussed with mailroom</t>
+  </si>
+  <si>
+    <t>to be discussedwith mail room</t>
+  </si>
+  <si>
+    <t>need to monitor for one week</t>
+  </si>
+  <si>
+    <t>to be seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailroom is instructed </t>
+  </si>
+  <si>
+    <t>to be do</t>
+  </si>
+  <si>
+    <t>Service TDS baseAmount to be considered instead of GST baseamount</t>
+  </si>
+  <si>
+    <t>Example needed</t>
+  </si>
+  <si>
+    <t>H5041617956</t>
+  </si>
+  <si>
+    <t>For Revenue,Cab,Employee taxcode is fixed and update the same for all line items</t>
+  </si>
+  <si>
+    <t>HSN /SAC not updated in Excel</t>
   </si>
 </sst>
 </file>
@@ -421,34 +506,34 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,27 +840,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="1"/>
-    <col min="4" max="4" width="48" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="48.140625" style="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="48.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,10 +887,16 @@
         <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -826,8 +921,14 @@
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -852,8 +953,14 @@
       <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -878,8 +985,14 @@
       <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -902,8 +1015,14 @@
       <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -926,8 +1045,14 @@
       <c r="H6" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -948,11 +1073,17 @@
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>8</v>
       </c>
       <c r="B8" s="8">
@@ -964,19 +1095,25 @@
       <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19">
+      <c r="E8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22">
         <v>5</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
       <c r="B9" s="8">
         <v>43711</v>
       </c>
@@ -986,14 +1123,20 @@
       <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -1010,14 +1153,20 @@
         <v>7</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="20">
+      <c r="G10" s="13">
         <v>1.5</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1038,11 +1187,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+        <v>53</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>12</v>
       </c>
       <c r="B12" s="8">
@@ -1064,9 +1219,15 @@
       <c r="H12" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="8">
         <v>43714</v>
       </c>
@@ -1080,14 +1241,20 @@
         <v>7</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="20">
+      <c r="G13" s="13">
         <v>2</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1112,56 +1279,71 @@
       <c r="H14" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="18">
         <v>43719</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="19">
+      <c r="G15" s="22">
         <v>2.5</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
+      <c r="H15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="G17" s="19"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -1182,17 +1364,20 @@
         <v>1</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <v>43720</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1202,17 +1387,17 @@
         <v>7</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="19">
+      <c r="G19" s="22">
         <v>1.5</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9" t="s">
         <v>44</v>
       </c>
@@ -1220,12 +1405,12 @@
         <v>7</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -1246,10 +1431,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -1272,8 +1460,11 @@
       <c r="H22" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -1281,23 +1472,33 @@
         <v>43719</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="21">
-        <v>2</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>55</v>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J23">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="A19:A20"/>
@@ -1318,4 +1519,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>